--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/18_Bitlis_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/18_Bitlis_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBE45AB-6958-4580-979C-E5EF7F8489B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F890EBB-B8A1-40D7-BFE5-439C18D9EAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="667" xr2:uid="{95D33823-2C04-48EA-A373-FA20C743CB4C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{CD9DE076-9C23-4539-A507-7954A32766AD}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -974,13 +974,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1D69C3EE-D81C-44A0-8408-3399271BB071}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3670EAD3-163E-4290-87BC-B493F6B5D463}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{89ECEC7E-A0D1-43E3-BD57-C355278F40F8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E2CB8ABA-3CB3-4BA9-B58B-3A4D9652DE0A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6DC24AD1-AF04-45D2-A67C-E41BC10CD9E0}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3A7BA220-A084-4376-842F-5CD9B91FC1F9}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E14C9C50-BD45-4F13-BF45-DF38BDAB5AD1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D3B3C5A0-2EBA-4895-AF9D-7331E7DA4EE7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5AE6C545-A20A-4240-9165-F4AE25A9AF26}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{26B86EDB-19D1-4BD4-A55E-BC1146C4D536}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{0A0BC670-A631-4FBA-BBD4-7A73F31EF9BD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{FB2D525C-16B7-4AF9-9A85-8B1AD2D96CF3}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{08CEF082-82D9-4EEE-AFDF-7718E4199352}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5107AB32-1C18-4826-8E3C-6E99CDEF303A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CDC063-8C6C-44F5-ACFB-474D9486B310}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB292BA-9EC6-4F3E-9775-CAB75F64CD9F}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2578,17 +2578,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48FDD1A2-96CE-4736-9C47-336985723A8A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ADE3CF8F-F11B-481E-AA91-F5C46AF8E05C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BF74D55-FCC0-4C43-993B-554418076DF6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{37053A8F-C79E-4B96-A3CA-29AEC79A6DC8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EF9BFE71-7836-4E18-9D97-D8F6E56A6C4F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E46B328-BBC6-4340-A384-92DCA666CA47}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE28C7BE-0353-4808-9484-03A8F0256415}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58670F5B-64C8-4F13-9DA3-023AA13BF3B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{09FF4D8E-C14A-4F6E-82DB-8AF2809FFA4E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{13858FAF-6CE4-4798-BB98-344D52B08E53}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C0F1A831-25C2-41FD-9E8D-D6491513AC42}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{937E3396-099F-4B24-B32D-7B604E5FEB00}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C878915-851F-4E68-8E42-A6E8FF5EF7B1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1C6931E-5DC3-42CC-8897-1496F8F73706}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EB05410C-A080-4D58-AA3A-D337D0F5600E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4075464E-F114-48AF-BA43-4E50DACCEFE5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C33537B3-B5F0-4994-ACF0-607547EF7137}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21AE8CCD-EF52-4704-B648-445B26B249D4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A1880C4-86D1-4AC6-82AA-617601A5B730}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A1E1FC1A-8DFD-4E54-A844-C3B77BB66825}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{695A6906-903D-4AEE-9ACA-8FADF17B3C9D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62722943-F3F8-4FCA-944F-E4312D825802}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2601,7 +2601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAE29F4-DE0B-4254-8904-FDE9B7E9430F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6EBAAF-184D-436C-9559-CEDAEFBFEC5C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3819,17 +3819,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{24B986D9-8AEF-43A7-BC0B-16A9CD64D617}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFC24271-8632-4816-B6F3-D24A20437A25}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4B8664CF-D1F1-45DD-9275-7444AA747E67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3ABBCD94-B452-46A3-BEFE-BAD17D68ECEF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C8FE9A74-FBA4-499C-9B9A-89C152BACAA7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{55EFE159-B602-4892-80FD-90149D61A763}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{59DFCD4B-1099-488A-AF1E-B1C0BC3A30C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBEB6E82-3CD1-424A-9C14-4DBA673AA06F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4A698FF6-57B4-4F5E-A298-D42A2B46A40D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{36E21DE0-429A-4236-9AE6-26167695AFEB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3DA3EE43-16BE-45A8-9444-5707E96B386A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D802D16-A860-4AE7-AEC1-0665BCAF1178}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3A38A5D5-8611-484E-9483-D949A70B072A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{50B38A16-E129-418D-BC12-175298B7028F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCF9E8BE-C45E-42F2-A5D6-707EDBCAF9DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D893CD66-597E-4D11-B59D-24D934CF5D17}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC6C5E66-49CF-49FB-8010-3561AD956920}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DBB75D26-CCD0-4DF5-8C9A-72C77D597322}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A98023AF-0CB1-4B81-9509-0D39818DD7FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{612AF9A0-24CF-4D66-9D97-6629C5AA0B9D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4C3DEA69-BC68-49E8-87FD-4F39C0DC34A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{72AECBDB-C058-41EC-9CD2-80848AFC40FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3842,7 +3842,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F58A36-1C75-4F62-934D-AF7EAE5C7F14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7864107E-5192-43A4-8C0A-BB00F08BFEEA}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5048,17 +5048,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA44B9F9-F4C0-4948-B304-43DA88A04C7C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F35EB60C-A1EA-4753-9B67-DCA4B68F4C1F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{153C6386-2DB8-4738-BB1E-FF28C38E52F1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F25EBC8A-39D2-4EDD-8F3F-1F110CA87EF8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07F197FB-AC51-4581-913A-D7107EDDDAA7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ECFC6C51-DD12-4F2A-966D-2BDF9AF96C39}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6622AA02-753C-4337-96E7-CE04C9CBBC9F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{223D67B8-B1DC-4D8B-8455-26ED823728F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0C188D32-28A3-4FEF-B57C-C8D0CB293D82}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{61A79125-E2F6-4A35-87C5-82325CF7AE7F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0573D826-3436-44BC-A714-AA504EAEAF64}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CCADDE9-FF62-4E9E-8C6B-1DA9CEDDFF35}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6504A35-3E8D-4DB3-AA3C-3300A7335603}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D0700CC4-F9D5-4404-BD54-72962CCCB8E6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B36B9715-7B25-4381-BF70-7003A3613399}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56CDD1F5-119F-43E6-AA91-1FD0F80957DB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8806CDCD-0B67-4A25-87A1-0CEC390207FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6CFC6B7A-26DE-47E6-92DB-A0A3A5B80395}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B91DD4D0-D7DD-4502-8FA9-E7D3B8B77036}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{90619DB7-A2E3-4991-B738-6A52BE77CDD6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{74657604-D705-4359-9588-5FA7FE6875C8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0A77386A-3101-46B2-BA94-149705B03D5E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5071,7 +5071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D807D7-6462-4EA6-BAED-8D9B3DFAB088}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A30A282-AE5E-45ED-A4E0-9C583163677E}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6271,17 +6271,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0646D296-EF5B-487E-AA6A-8444CDCC75A9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{644B1FCA-E16B-4AA1-AAF2-268BF2106B5A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{82BB018F-7C47-4E5D-B404-D22FE576618A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{59F27B1A-3202-4C66-999E-56A469C22AE2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C277C500-ACEE-4DCF-B796-E364F4B727CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7105EB36-3788-4404-8A82-E6A4D660DEC2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FBACD50B-A181-4236-AB59-0E164535526A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0EFFF77A-0885-4418-96C8-37E875A2FDE1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EAF3936E-A3BD-4D67-A047-C66D118E0EF0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5E009CCE-D044-4D30-AE91-080D762BF79C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{60D6AE9A-A37F-4139-B0AF-1F54B222BE66}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4B61E3D5-D680-4878-A4F2-DE7CDCD81DF4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ED07ABCA-A6D3-4F27-9D18-778F04F850D8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{628A2F96-07E9-4EE4-95F1-7441665198E5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE881B1D-A1FB-4E80-8A81-C042A8ED9B22}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DFA6FDA7-CB95-4A84-8D52-90EAD3129B77}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CF93EBD3-DD2B-414B-9EA0-0BA812249324}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A78F7CA4-D024-455D-8BD6-FF6D805A5362}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95110C6A-E1FD-4B95-817B-A7FC07A98699}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E8A4BF96-9208-4D9A-8B72-11AB23373F27}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AA650ACE-F56D-4CDA-BD63-8BD9B0EDB7B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3070EB46-2A34-40BA-9A2B-49161C762521}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6294,7 +6294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2640958-069C-4EEA-BE88-2AC773207066}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EB400A-AEBE-4037-8CCD-65E730261E5E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7517,17 +7517,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47D435D3-495D-4D27-B594-850DD19FCB15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF3BBC42-82AE-4421-B107-366B59BB8E35}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AA34E59E-8699-4E83-B593-2271CD91C2B4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{883CCAAA-CAB4-4E23-8EFC-729D15FCACF7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8CF14442-4D3F-4293-A4AB-BF66A8C3F1E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8D74354-E3B1-4839-AC15-A519B4F739D5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67B12D2B-FBF7-4FAA-ABED-7DB5D24B9DC1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A1C43BB0-090B-43EA-A010-DB61301EAA21}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C039EDA4-FFD7-4FE1-A2DD-01814911A02A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{970235CC-1D8F-47A3-B845-4217C6BA756E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21452E01-928F-43F6-A2C5-22EE8EE86C2D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{755CF859-5165-432E-A76C-2D65CE41FD19}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC6D3F29-3092-4290-AC78-F309B1EB42F4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{35298CE3-565B-43D5-94C0-1DEAD338F7E7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{68DE0AE8-3BC9-4DAE-9E55-DFF49D907652}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DA858F84-65FB-435D-8B82-8BF963CB8A2F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{273070E8-C872-43BB-8A83-67CC7EA43D34}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD923A0E-8275-4962-9105-BAA6A562D92D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0110034-EAF1-45E1-A92C-4F0A3B650E65}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BE864273-1C8D-4359-8F96-BD124ED5553A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{31ABF10C-B226-4BAB-8F6D-CF589BBC37F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2AB10ED6-5B9D-490B-B3F7-510465CBA219}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7540,7 +7540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A92D97-628D-42AE-81A9-D562EA7B99AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF57DDAD-909D-4EB1-8E16-52C01CAD6C2F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8763,17 +8763,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{257E19C2-9045-419A-9724-D5777ADC6CC4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{80FEB716-7E66-4AF1-83E6-494493E53861}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{49689C83-6D8E-4224-BC58-6BBE8B9E864A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A194584-08E1-4BE0-BF42-C095DADE997E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B278A4B-8147-4052-8F88-A1015EB3A516}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB95B22B-F85E-4DFA-A647-4A1E49F4C49A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5BC1666A-9016-4D26-9E68-FB8EACFE5E97}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DB6BA76-EFEB-4640-B414-6858D2EFF32C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{72FA7BE4-E3BC-40C0-9D70-F5FBA24339BF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D7CEC08F-3211-4746-84FA-5B0053401143}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24B64568-5422-4868-BA3C-41E473346E41}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35EE8717-0C4C-418E-A7EF-2B526420F14D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{878F9029-C62F-4C1D-A0F0-445B43185177}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{21B1A03A-9AAD-408D-9CA5-3CDC5CAC3CE1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FD30880E-C172-46E1-8F08-8AF345389CC1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{116D0066-9E1D-4D3C-BE79-5AF3A5FD5998}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7F723ABA-8E15-4EAF-A1AD-BB6D38B198FA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{116B944B-7C4C-4DAB-9F33-43DDD10D2F41}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{34658412-62D7-4DC3-A878-B990B44A3CCD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9711BA66-F62E-4C3C-A83D-9C984E3EC32A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C8DB942E-420C-49D3-BC77-40F1954DEEC5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A444E41D-39F2-4629-8318-E1FB702C594E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8786,7 +8786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838DCCDC-1A5F-4865-8BCA-9646829E1C4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B98F9A5-A91D-4EB3-AAE3-ED7920845735}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10009,17 +10009,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D969AEEE-15CA-4AAA-B2F2-0F7D3BA33B29}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D97C0C7B-D37A-432B-8B5C-8EBEC1AF7E74}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BA395A6-00B5-456A-9DAD-E5C9B45247EA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4F0255A0-0BED-4F06-A3EC-421FF452FA27}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{548B9D43-5607-4548-A223-3519D21F4593}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{16EF496A-618E-4DE7-BA94-90697F3A56C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A888D22-ACE2-48E4-8F77-1CBB9937CA8B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5762E2CF-CB82-4EDB-8E56-0B727F98CDCA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{98580FEB-27E2-4C16-8165-26D807C5A245}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D252399C-B156-4EB7-AAAC-2FE56E6B1D8B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E67CFD9B-097B-48DF-807F-945AC981A94E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{634C91DD-E089-4197-A30C-47E0F2A86231}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{43111762-E4DD-4DA7-8B3F-368570FD9E71}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CBD10513-1077-4784-865B-E9BD09072AB0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{14DDC386-800C-4F2C-9FF8-D815392C5910}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{950650C2-648F-4C33-AE7C-E9590A16C032}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1E7A66A1-BD92-4357-B821-92734E10A55B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DDF2135-A48A-4F15-BC15-DCC178239D59}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{226ED359-FFFC-4AB1-B112-3D0F4DD9FD83}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0C515D55-03F6-4167-A029-9D751252E767}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CF186A48-6A41-41A5-B80D-B38B35F90C6C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4213C457-E062-44F6-A4D3-46AF9F10630D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10032,7 +10032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C8EB82-5BAC-44A7-BF9D-5179F3E2A239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11303D68-B455-41BF-8BB6-E93F489962F6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11255,17 +11255,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78A553E7-4011-4DFC-9C7F-68EDC5D635D4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A30BB0A5-CAEF-4DAC-9470-2D7DD32FC3E0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{64C8A496-C2EA-4FE7-A082-0E22AAC76561}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{72BC8E6B-6F93-46BF-A2C8-B4937539783C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3D8A945-9AC8-4B69-91B3-E61C0810C56E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{654441F3-B513-49A9-90E5-FF437E9D80AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A77C40B-EC0B-4877-96D3-C1031B396CEE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8453682-DCFA-42FA-BAC9-C9202856ABFB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E00A9ADA-D55C-4444-B581-3151970F2FC0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B4BC146A-A561-40BF-AD2C-C80B7F2D072E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC3CAF9A-BA85-4DA0-9297-8B97444B55A7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E3D6480-B0B3-47F9-B513-F98E14BFCF5E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9FF7A51-8E1E-4E64-9640-C9AA6DB23A72}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{513B6864-C271-4EC7-B752-99A2DB78F84D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F10E6AB7-9F4D-460A-8A18-0C7365EBD176}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{361344FF-C81D-46E2-80FD-CCE7AC6981BC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FB7CCBC6-613F-4432-836C-481189683384}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{32E2BA11-74AF-4283-ABB2-D5BE73A078EA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7EAF6614-F65D-4B5B-A75A-340AD54D14F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C865C164-3220-4D7E-B7BC-1FD86C4625B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4837EF21-8923-4F89-A123-C2BEC670169C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DFA505CD-0691-4183-BDF8-E2F15A45239B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11278,7 +11278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0C3C25-E9BF-4464-87DC-49D936AC0F7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350D9036-BAE3-4A2C-BF60-9DF68AD1871C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12501,17 +12501,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{767C810D-C8B0-4341-B141-63F96480BC90}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{729F9707-D446-4417-A1A0-66DA55C89097}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8284FDB6-510C-4210-B0C2-06DDE05A781B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{37F111AE-B64A-4179-9118-840430BF34E2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04544526-2B04-4545-9327-ABCFE2624EFB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D46D5967-AF86-44F3-B783-909FCB8AFAE2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE8F5340-BD71-4FCE-9A82-C33549695F9E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F204B157-0A9B-4F1D-B345-332B3DBF12C4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{FC381334-1AB5-42C7-B7ED-2E940D108EC8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{751BF53F-013C-4811-8B4C-9E981286BC3B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEAB9884-6FD7-4DE3-AFDE-1CFD65AB5C22}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{700CD27A-6C73-4FE9-B2DA-9E9F1BA4B149}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEBAF601-7C0C-4026-B287-AD1EE7AE53AF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{73D3F4B9-FBF2-4798-AFD0-11D8A4C0CB1D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FC8D0412-6DD7-47C1-94AC-091434FC2ED3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB904B84-97AA-45A2-8F7D-1CF7AA1F829A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{157E864A-3862-4211-880B-11982E5C4DC0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EEBAA204-548A-4CA7-98CB-B67AEF8271CB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{015EB593-53BF-47C9-A48E-F4671613D12F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9B35DCD8-B03E-44BC-AD9A-5B28458A9104}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4540A20D-2D9F-4408-86BA-E8F08C9A0881}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B5B2D55F-E4D5-4B8E-8580-B7219474721D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12524,7 +12524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EE7166-75B3-4E19-A613-2DA1EF0C66E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0FC23F-90BB-46FA-A53D-57341C7F3594}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13747,17 +13747,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1AD3AC51-4081-4826-9B10-D7B420D00BE4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5721534F-5BCB-4BDB-B41E-4BB525FB5751}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B61FEB58-D1AB-4112-88A1-C9F8CA89CFF9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4A30F7E2-24E4-41E8-91C2-DF97F6F76A0D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1BACF3C-89A9-4E3B-8C29-1F0D002071CB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADC8D332-BD9C-439C-986F-8661F933A03E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CCDDE6F1-0467-4B37-99F8-5816B44EB7F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{032E7B53-93AA-4212-8916-8E8BCD52667F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{9D17CCC8-0FA4-46FB-9392-E14CD81D1B06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{50B81E4A-99EE-4D32-AA04-651B0C9AB9EE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD20A804-EC32-4E17-A1D8-BBE717C4C4ED}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1F223AA7-B9D0-4418-B171-470156C2DF67}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E6A4B3C8-C5CD-46F9-B516-A3D3D90E36A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ABA1E01A-5E6E-4972-9AF3-FC9B47A36D28}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{04278FD0-1F8A-46A5-A7A5-6B26008F9629}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C47A6602-7CB7-44BF-A08B-16C478E8A1B2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{94A3DF54-78B7-481B-B143-7138BB06140E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BEB4E38-7AB2-47ED-B5F9-17C15CAC8DA3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFFEA028-49AC-4840-AAA5-16E49BAAC24B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{89560AF6-E496-4FE3-A80A-F8E11C9EC1AB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BC3AEE4E-9A87-4DBE-9922-C55C402A9C2B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{381BEC07-C960-4FDC-A97D-EDA2A65E1547}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13770,7 +13770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD11E59-2445-4494-9EAD-84E0B2ECCA13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AE77C8-DF7F-4B54-B894-767E91FCC317}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -14994,17 +14994,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C4198BE9-012A-4CB1-AC35-40B9D5DEBE30}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BFC1AB7B-015D-475A-96A6-00ACBA634FD3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{060A05D8-D934-4714-AF1F-102657E1D01E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{343D128D-6539-4C2C-B05E-81D9176BFCA4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D3F76D96-809D-4E90-874D-551429FA30A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D566177-7370-48CD-9751-EC66C5646D62}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9FC11D5-66DF-40C6-9210-A4BF9F4F7F07}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A5FEF473-D8A7-4816-B41F-384D30F3EE96}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C801E8F2-2F09-4413-90CB-27DE10357A59}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8AADDAA6-F172-480D-AFED-6E95D362EB4A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69E9D9EB-4F91-4537-91CD-B9687659AB08}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB9CCD7B-666D-40C2-BE2F-06031852FC56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2326672F-4AD6-4D0F-8294-E319DC5D3F6B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E3F95072-CEBE-458F-9FF7-4A2F8F6416F9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53EBD7B5-18B1-4E23-8ECA-E50573EF85B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2B4EF68-E7F2-417E-AA0C-9D817A536846}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{880A38BF-1E71-47FF-A5BC-E1762C303A1C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB459C70-E30A-4B46-93EA-B598C1279609}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F700B07-AC15-4B03-B4EC-8EA527D1C221}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{67C770AE-D918-41A7-A552-23FFB5CB5CBB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2EBC58A6-B3EF-4DEE-9F4F-676C8856E882}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84E3AEBF-956E-4C8F-9DC3-5EB366AC04A7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15017,7 +15017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440CBAE1-4DA9-4D19-A362-9E79DD0E520F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12E858E-5A3B-43E6-979E-91B3A5BA8842}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16241,17 +16241,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B444CDDB-AF58-4D5F-B6BD-05B947C15EEA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C979E2C1-BD23-4427-8AE7-2BC5381D00E6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AAF60B2C-A152-4B59-AF11-22D521C1AE57}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{86F28822-6252-417C-ACC7-98AB378AE5CB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{23643CE6-FF09-4C90-B7D4-DB4B9BF0939A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2ADAC903-20AE-4C8A-BDD9-095BEF27DE1C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2C2C761B-7AA2-4250-8540-A6E2815332DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3E015B6F-B3C3-4ADB-A5C0-C5E0BA0258ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2591E706-C0E0-4797-9E02-51D446BA2F2B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9B3F94D9-F024-4CB7-9082-32F64274A77C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{69FA3F3F-A193-4764-9BDE-4D8A51194EE4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8650FD1-CABF-433F-876D-E2794CABD104}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{83AF5B0B-3F0E-4538-908E-330D383BFF0D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7671C3F2-5DE3-4E54-BEF7-CADD55B85C86}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6E9AF806-FB64-48B8-B53C-0F3C829E43CF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{711EB9CB-3D7A-45CC-898A-EA4A25C44476}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1DEC70A-A740-4EAF-BA06-2D246E8D1E78}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24F45978-6189-4E42-83BA-8D12651816A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BC21EA4B-EEAC-4B7A-B5DC-2FFCBEF39C1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3B54FECB-8352-4F6A-BFA1-1AA64CB6BC22}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{150B4274-A1FC-4157-81DA-0D6F81EFBA1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0990CBEF-8FD4-406D-AC0C-6625269023D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
